--- a/Sprint_Reviews/Sprint_Review_2.xlsx
+++ b/Sprint_Reviews/Sprint_Review_2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FH\ITP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6624DE94-D885-42CA-B8FF-6879526AF2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{6624DE94-D885-42CA-B8FF-6879526AF2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45D2318C-F953-4E82-9FA2-106AECF9EFF4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -44,30 +47,63 @@
     <t>Date &amp; Time</t>
   </si>
   <si>
+    <t>08.04.2025</t>
+  </si>
+  <si>
     <t>Group Number</t>
   </si>
   <si>
     <t>Participant 1</t>
   </si>
   <si>
+    <t>Hu Haakon</t>
+  </si>
+  <si>
     <t>Participant 2</t>
   </si>
   <si>
+    <t>Nikola Cvetkovic</t>
+  </si>
+  <si>
     <t>Participant 3</t>
   </si>
   <si>
+    <t>Sijaric Edin</t>
+  </si>
+  <si>
     <t>Participant 4</t>
   </si>
   <si>
+    <t>Stemberger Jonas</t>
+  </si>
+  <si>
     <t>Participant 5</t>
   </si>
   <si>
+    <t>Mentor</t>
+  </si>
+  <si>
+    <t>Martin Docsek</t>
+  </si>
+  <si>
     <t>List the Ids of the Requirements which are subject to the review</t>
   </si>
   <si>
     <t>Req ID</t>
   </si>
   <si>
+    <t>short description [opt]</t>
+  </si>
+  <si>
+    <t>Estimate [h]</t>
+  </si>
+  <si>
+    <t>Real Efort [h]</t>
+  </si>
+  <si>
+    <t>Delta [h]</t>
+  </si>
+  <si>
     <t>Passed</t>
   </si>
   <si>
@@ -77,7 +113,16 @@
     <t>remarks</t>
   </si>
   <si>
-    <t>short description [opt]</t>
+    <t>MockUp der Website, User log in &amp; Usereinstellungen</t>
+  </si>
+  <si>
+    <t>Ich finde es gut, dass wir jetzt ein MockUp haben, damit jeder der an der Website arbeitet sich auskennt wie es am Ende aussehen soll. Beim MockUp gab es kaum Probleme, da ich schon ein wenig Erfahrung mit Balsamiq hatte und beim Log in &amp; Usereinstellungen gab es ebenfalls keine Schwierigkeiten. Den MockUp hätten wir schon früher gemeinsam gestalten sollen, damit jeder ein klares Bild beim erstellen der Website hat, um so Komplikationen in Zukunft zu vermeiden.</t>
+  </si>
+  <si>
+    <t>Umsetzung der Auto-Galerie mit Grid</t>
+  </si>
+  <si>
+    <t>Galerie zeigt alle Autos dynamisch aus DB, funktioniert zuverlässig</t>
   </si>
   <si>
     <t>…</t>
@@ -86,53 +131,17 @@
     <t>n</t>
   </si>
   <si>
-    <t>Mentor</t>
-  </si>
-  <si>
     <t>fill out the orange fields</t>
   </si>
   <si>
-    <t>Estimate [h]</t>
-  </si>
-  <si>
-    <t>Real Efort [h]</t>
-  </si>
-  <si>
-    <t>Delta [h]</t>
-  </si>
-  <si>
     <t>Transfer your estimate as well as your real effort from your planing tool to this protocol</t>
-  </si>
-  <si>
-    <t>08.04.2025</t>
-  </si>
-  <si>
-    <t>Hu Haakon</t>
-  </si>
-  <si>
-    <t>Nikola Cvetkovic</t>
-  </si>
-  <si>
-    <t>MockUp der Website, User log in &amp; Usereinstellungen</t>
-  </si>
-  <si>
-    <t>Ich finde es gut, dass wir jetzt ein MockUp haben, damit jeder der an der Website arbeitet sich auskennt wie es am Ende aussehen soll. Beim MockUp gab es kaum Probleme, da ich schon ein wenig Erfahrung mit Balsamiq hatte und beim Log in &amp; Usereinstellungen gab es ebenfalls keine Schwierigkeiten. Den MockUp hätten wir schon früher gemeinsam gestalten sollen, damit jeder ein klares Bild beim erstellen der Website hat, um so Komplikationen in Zukunft zu vermeiden.</t>
-  </si>
-  <si>
-    <t>Martin Docsek</t>
-  </si>
-  <si>
-    <t>Sijaric Edin</t>
-  </si>
-  <si>
-    <t>Stemberger Jonas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,17 +385,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -394,47 +409,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,9 +463,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -494,7 +503,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -600,7 +609,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -742,7 +751,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -753,10 +762,10 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:H14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" style="2" customWidth="1"/>
@@ -768,31 +777,31 @@
     <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -803,11 +812,11 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="17">
         <v>2</v>
       </c>
@@ -816,24 +825,24 @@
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="19" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="19">
         <v>6</v>
       </c>
@@ -842,100 +851,100 @@
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="21" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
@@ -947,21 +956,21 @@
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
@@ -978,10 +987,10 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="8">
         <v>2</v>
       </c>
@@ -996,7 +1005,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="8">
         <v>3</v>
       </c>
@@ -1011,22 +1020,32 @@
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2.5</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="8">
         <v>5</v>
       </c>
@@ -1041,7 +1060,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="8">
         <v>6</v>
       </c>
@@ -1056,7 +1075,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="8">
         <v>7</v>
       </c>
@@ -1071,9 +1090,9 @@
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1086,9 +1105,9 @@
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1101,9 +1120,9 @@
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1116,7 +1135,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="6">
         <f>COUNT(A16:A25)</f>
         <v>7</v>
@@ -1126,11 +1145,11 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6">
         <f>SUM(E16:E25)</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="F26" s="6">
         <f>COUNT(F16:F25)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="6">
         <f>COUNT(G16:G25)</f>
@@ -1138,19 +1157,23 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="B31" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
@@ -1167,10 +1190,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Sprint_Reviews/Sprint_Review_2.xlsx
+++ b/Sprint_Reviews/Sprint_Review_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FH\ITP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{6624DE94-D885-42CA-B8FF-6879526AF2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45D2318C-F953-4E82-9FA2-106AECF9EFF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0717873-05EC-4B43-BEE4-D56A07D27466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Ich finde es gut, dass wir jetzt ein MockUp haben, damit jeder der an der Website arbeitet sich auskennt wie es am Ende aussehen soll. Beim MockUp gab es kaum Probleme, da ich schon ein wenig Erfahrung mit Balsamiq hatte und beim Log in &amp; Usereinstellungen gab es ebenfalls keine Schwierigkeiten. Den MockUp hätten wir schon früher gemeinsam gestalten sollen, damit jeder ein klares Bild beim erstellen der Website hat, um so Komplikationen in Zukunft zu vermeiden.</t>
+  </si>
+  <si>
+    <t>Erstellung der Home-site</t>
+  </si>
+  <si>
+    <t>Ich fand es gut das wir dass MockUp erstellt haben sodass jeder weiß wie die Seiten ungefähr ausschauen sollen. Das wir jetzt auch ein Kanban board haben ist auch gut so weiß jeder was gemacht werden muss und man hat generell eine klare übersicht über das Projekt . Beim erstellen der Homeseite gab es wenig probleme weil ich schon das wissen dafür hatte aus dem letzten Semester. Wir hätten das Mockup und Das Kanbanboard erstellen sollen. Ich finde wir sollten in zunkunft mehere Gruppen meetings machen.</t>
   </si>
   <si>
     <t>Umsetzung der Auto-Galerie mit Grid</t>
@@ -371,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -385,6 +391,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -403,12 +427,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -433,17 +451,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
@@ -778,28 +787,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1">
       <c r="A3" s="5"/>
@@ -813,131 +822,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="17">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21">
         <v>2</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="23">
         <v>6</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
@@ -965,7 +974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="194.25">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -986,24 +995,34 @@
         <v>1</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="194.25">
       <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" ref="E17:E25" si="0">D17-C17</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="29" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8">
@@ -1025,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
@@ -1042,7 +1061,7 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1092,7 +1111,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1107,7 +1126,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1122,7 +1141,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1145,11 +1164,11 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6">
         <f>SUM(E16:E25)</f>
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="6">
         <f>COUNT(F16:F25)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="6">
         <f>COUNT(G16:G25)</f>
@@ -1160,21 +1179,16 @@
     <row r="30" spans="1:8">
       <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1189,6 +1203,11 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
